--- a/files/dedicated_spine_leaf_ebgp_DCN_Settings.xlsx
+++ b/files/dedicated_spine_leaf_ebgp_DCN_Settings.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chiapuzi\source\repos\aoscx-ansible-dcn-workflows\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoobregon/Documents/Ansible/AOSCX-Ansible-DCN/aoscx-ansible-dcn-workflows/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5490" yWindow="5415" windowWidth="4785" windowHeight="3570" activeTab="3"/>
+    <workbookView xWindow="1180" yWindow="460" windowWidth="21360" windowHeight="13760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Prerequisite Checklist" sheetId="13" r:id="rId1"/>
@@ -17,9 +17,15 @@
     <sheet name="Spine Network" sheetId="8" r:id="rId3"/>
     <sheet name="Leaf Network" sheetId="10" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,21 +35,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="108">
   <si>
-    <t>10.10.10.54</t>
-  </si>
-  <si>
     <t>Zone1</t>
   </si>
   <si>
-    <t>10.10.10.55</t>
-  </si>
-  <si>
-    <t>10.10.10.56</t>
-  </si>
-  <si>
-    <t>10.10.10.57</t>
-  </si>
-  <si>
     <t>primary</t>
   </si>
   <si>
@@ -62,21 +56,9 @@
     <t>rack3</t>
   </si>
   <si>
-    <t>192.168.1.11</t>
-  </si>
-  <si>
-    <t>192.168.1.12</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
-    <t>10.10.10.60</t>
-  </si>
-  <si>
-    <t>10.10.10.61</t>
-  </si>
-  <si>
     <t>1/1/49,1/1/50</t>
   </si>
   <si>
@@ -131,12 +113,6 @@
     <t>Jinja2 Config Template</t>
   </si>
   <si>
-    <t>1/1/27, 1/1/28</t>
-  </si>
-  <si>
-    <t>1/1/23, 1/1/24</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -185,37 +161,10 @@
     <t>Rack3</t>
   </si>
   <si>
-    <t>192.168.1.0</t>
-  </si>
-  <si>
     <t>L3 Campus Core</t>
   </si>
   <si>
     <t>Network Settings</t>
-  </si>
-  <si>
-    <t>192.168.1.110</t>
-  </si>
-  <si>
-    <t>192.168.1.111</t>
-  </si>
-  <si>
-    <t>192.168.1.112</t>
-  </si>
-  <si>
-    <t>192.168.1.113</t>
-  </si>
-  <si>
-    <t>192.168.1.1</t>
-  </si>
-  <si>
-    <t>192.168.1.2</t>
-  </si>
-  <si>
-    <t>192.168.1.5</t>
-  </si>
-  <si>
-    <t>192.168.1.6</t>
   </si>
   <si>
     <t>configs/</t>
@@ -532,14 +481,78 @@
 Note that these inventories use a logical grouping method of "VSX Pairs" which assumes that each leaf switches are in VSX pairs. These name of these pairs can be any alphanumeric value; this is just one approach to coupling VSX pairs. You can change the grouping nomenclature to your liking as long as you keep the names consistent throughout the inventory.</t>
     </r>
   </si>
+  <si>
+    <t>172.16.0.191</t>
+  </si>
+  <si>
+    <t>1/1/8, 1/1/9</t>
+  </si>
+  <si>
+    <t>172.16.0.192</t>
+  </si>
+  <si>
+    <t>Aruba123!</t>
+  </si>
+  <si>
+    <t>172.16.0.193</t>
+  </si>
+  <si>
+    <t>172.16.0.194</t>
+  </si>
+  <si>
+    <t>172.16.0.195</t>
+  </si>
+  <si>
+    <t>172.16.0.196</t>
+  </si>
+  <si>
+    <t>192.168.190.0</t>
+  </si>
+  <si>
+    <t>192.168.190.11</t>
+  </si>
+  <si>
+    <t>192.168.190.12</t>
+  </si>
+  <si>
+    <t>192.168.190.1</t>
+  </si>
+  <si>
+    <t>192.168.190.2</t>
+  </si>
+  <si>
+    <t>192.168.190.5</t>
+  </si>
+  <si>
+    <t>192.168.190.6</t>
+  </si>
+  <si>
+    <t>192.168.190.110</t>
+  </si>
+  <si>
+    <t>192.168.190.112</t>
+  </si>
+  <si>
+    <t>192.168.190.111</t>
+  </si>
+  <si>
+    <t>192.168.190.113</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -715,6 +728,21 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -832,16 +860,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,14 +912,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,60 +948,62 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -983,60 +1013,75 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1044,35 +1089,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1793,159 +1828,153 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A1" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
+    <row r="1" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
       <c r="D1" s="3"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="48.95" customHeight="1" thickBot="1">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:7" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="54"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+    </row>
+    <row r="7" spans="1:7" ht="252" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+    </row>
+    <row r="8" spans="1:7" ht="37" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+      <c r="A9" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+    </row>
+    <row r="10" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1">
-      <c r="A3" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1">
-      <c r="A4" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="61"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-    </row>
-    <row r="7" spans="1:7" ht="252" customHeight="1">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
-    </row>
-    <row r="8" spans="1:7" ht="36">
-      <c r="A8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="31.5">
-      <c r="A9" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-    </row>
-    <row r="10" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A10" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-    </row>
-    <row r="11" spans="1:7" ht="52.5" customHeight="1">
-      <c r="A11" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-    </row>
-    <row r="12" spans="1:7" ht="60" customHeight="1">
-      <c r="A12" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
-    </row>
-    <row r="13" spans="1:7" ht="72" customHeight="1">
-      <c r="A13" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-    </row>
-    <row r="14" spans="1:7" ht="31.5">
-      <c r="A14" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="18.75">
-      <c r="A15" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
-    </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="18.75">
-      <c r="A16" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+    </row>
+    <row r="11" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+    </row>
+    <row r="12" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+    </row>
+    <row r="13" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+    </row>
+    <row r="14" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+      <c r="A14" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="46"/>
     </row>
   </sheetData>
-  <sheetProtection password="C6EC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="12">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -1953,6 +1982,11 @@
     <mergeCell ref="A4:B7"/>
     <mergeCell ref="C4:D7"/>
     <mergeCell ref="A9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4:D7" r:id="rId1" display="Click for Validated Reference Design"/>
@@ -1969,146 +2003,145 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.85546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.83203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.1640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="9"/>
+    <col min="9" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75">
-      <c r="A1" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+    <row r="1" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="3.95" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-    </row>
-    <row r="3" spans="1:7">
+    <row r="2" spans="1:7" ht="4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B6" s="11">
         <v>65101</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B8" s="11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B9" s="11">
         <v>9198</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C13" s="13"/>
       <c r="E13" s="13"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="11"/>
       <c r="C14" s="13"/>
       <c r="E14" s="13"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="37"/>
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
     </row>
   </sheetData>
-  <sheetProtection password="C6EC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:E1"/>
@@ -2127,136 +2160,135 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" style="19" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="19" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="23.42578125" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="19"/>
+    <col min="7" max="8" width="23.5" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
-      <c r="A1" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+    <row r="1" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
       <c r="F1" s="17"/>
       <c r="G1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="3.95" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75">
+    <row r="2" spans="1:8" ht="4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+    </row>
+    <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="13" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="25"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="13" spans="1:8" ht="18.75">
-      <c r="A13" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="25"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="18.75">
-      <c r="A19" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="19" t="s">
-        <v>38</v>
-      </c>
       <c r="B20" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="C6EC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:F2"/>
@@ -2274,235 +2306,235 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="19" customWidth="1"/>
     <col min="3" max="5" width="20" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="19"/>
+    <col min="6" max="6" width="11.5" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="19" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="33.75">
-      <c r="A1" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+    <row r="1" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
       <c r="F1" s="17"/>
       <c r="G1" s="18"/>
     </row>
-    <row r="2" spans="1:10" ht="18.75">
+    <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>90</v>
-      </c>
       <c r="C3" s="29" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>95</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="J5" s="25"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D6" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="C17" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="29" t="s">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="33" t="s">
         <v>78</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="18.75">
-      <c r="A12" s="26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="33" t="s">
-        <v>97</v>
       </c>
       <c r="B18" s="35">
         <v>65001</v>
@@ -2511,9 +2543,9 @@
         <v>65003</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B19" s="35">
         <v>11</v>
@@ -2522,61 +2554,60 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H20" s="25"/>
       <c r="J20" s="25"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H21" s="25"/>
       <c r="J21" s="25"/>
     </row>
-    <row r="25" spans="1:10" ht="18.75">
+    <row r="25" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B30" s="19">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="C6EC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
